--- a/biology/Botanique/Priam_(pomme)/Priam_(pomme).xlsx
+++ b/biology/Botanique/Priam_(pomme)/Priam_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Priam est le nom d'un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh Priam
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1951, station expérimentale d'agriculture de l'université de Perdue, Lafayette, Indiana, États-Unis
 </t>
@@ -543,9 +557,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pedigree: PRI 14-126 (une Golden Delicious résistante) x Jonathan[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pedigree: PRI 14-126 (une Golden Delicious résistante) x Jonathan.
 Descendants:
 Judaine
 Judeline</t>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usage : pomme à dessert
 Couleur de la peau : rouge brillant sur fond vert-jaune
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,7 +655,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Conservation : 3 mois à 2 °C</t>
         </is>
